--- a/po_analysis_by_asin/B0CKM1JX4S_po_data.xlsx
+++ b/po_analysis_by_asin/B0CKM1JX4S_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,137 +452,153 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45341</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45369</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45376</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45509</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45516</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45523</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45530</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45537</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45544</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45551</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45565</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45593</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -597,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,49 +635,65 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>114</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>75</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45505</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>156</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45536</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45566</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B7" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B9" t="n">
         <v>40</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CKM1JX4S_po_data.xlsx
+++ b/po_analysis_by_asin/B0CKM1JX4S_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -629,7 +630,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -695,6 +696,425 @@
       </c>
       <c r="B9" t="n">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>34</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.740202526031666</v>
+      </c>
+      <c r="D2" t="n">
+        <v>62.69479649522214</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>33</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.648621315659796</v>
+      </c>
+      <c r="D3" t="n">
+        <v>63.0219760321971</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>32</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.424795512778714</v>
+      </c>
+      <c r="D4" t="n">
+        <v>61.9263218202944</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>32</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.144176156808419</v>
+      </c>
+      <c r="D5" t="n">
+        <v>60.56817044889288</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>32</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.250976812151276</v>
+      </c>
+      <c r="D6" t="n">
+        <v>60.06018138909931</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>32</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.164509288752438</v>
+      </c>
+      <c r="D7" t="n">
+        <v>61.6335683259378</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.953707760037067</v>
+      </c>
+      <c r="D8" t="n">
+        <v>62.38171153366238</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>31</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.014459062605261</v>
+      </c>
+      <c r="D9" t="n">
+        <v>59.05237286595398</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>31</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.593501061854954</v>
+      </c>
+      <c r="D10" t="n">
+        <v>61.30447249403041</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.145488427352993</v>
+      </c>
+      <c r="D11" t="n">
+        <v>60.51541356589137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>28</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-2.165118148821175</v>
+      </c>
+      <c r="D12" t="n">
+        <v>56.78798256750386</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>28</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01644262266500549</v>
+      </c>
+      <c r="D13" t="n">
+        <v>55.65694832535821</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>28</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.408540016946355</v>
+      </c>
+      <c r="D14" t="n">
+        <v>57.44917852663067</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>28</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.4790627504794984</v>
+      </c>
+      <c r="D15" t="n">
+        <v>54.69911785413857</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>28</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.5632406795680566</v>
+      </c>
+      <c r="D16" t="n">
+        <v>58.20075606878463</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>28</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.663712925622445</v>
+      </c>
+      <c r="D17" t="n">
+        <v>56.41453495178853</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>27</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-2.910748427598009</v>
+      </c>
+      <c r="D18" t="n">
+        <v>54.92060906115279</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>27</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.202118811381786</v>
+      </c>
+      <c r="D19" t="n">
+        <v>56.42677702447465</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>27</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-2.151412530723036</v>
+      </c>
+      <c r="D20" t="n">
+        <v>52.86963612432499</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>27</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.706158130545303</v>
+      </c>
+      <c r="D21" t="n">
+        <v>53.69364707632938</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>26</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.709061148657957</v>
+      </c>
+      <c r="D22" t="n">
+        <v>54.08017869260637</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>26</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.65183899879832</v>
+      </c>
+      <c r="D23" t="n">
+        <v>56.44606190205304</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>26</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.602482728117749</v>
+      </c>
+      <c r="D24" t="n">
+        <v>55.06338686899744</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>26</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-3.897581428986077</v>
+      </c>
+      <c r="D25" t="n">
+        <v>55.21639395440823</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>26</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.357611898020767</v>
+      </c>
+      <c r="D26" t="n">
+        <v>55.04546018361148</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-5.488555514834304</v>
+      </c>
+      <c r="D27" t="n">
+        <v>56.44835017869499</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.475925169480025</v>
+      </c>
+      <c r="D28" t="n">
+        <v>55.29481478023038</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CKM1JX4S_po_data.xlsx
+++ b/po_analysis_by_asin/B0CKM1JX4S_po_data.xlsx
@@ -709,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,16 +728,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -746,12 +736,6 @@
       <c r="B2" t="n">
         <v>34</v>
       </c>
-      <c r="C2" t="n">
-        <v>4.740202526031666</v>
-      </c>
-      <c r="D2" t="n">
-        <v>62.69479649522214</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -760,12 +744,6 @@
       <c r="B3" t="n">
         <v>33</v>
       </c>
-      <c r="C3" t="n">
-        <v>4.648621315659796</v>
-      </c>
-      <c r="D3" t="n">
-        <v>63.0219760321971</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -774,12 +752,6 @@
       <c r="B4" t="n">
         <v>32</v>
       </c>
-      <c r="C4" t="n">
-        <v>4.424795512778714</v>
-      </c>
-      <c r="D4" t="n">
-        <v>61.9263218202944</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -788,12 +760,6 @@
       <c r="B5" t="n">
         <v>32</v>
       </c>
-      <c r="C5" t="n">
-        <v>2.144176156808419</v>
-      </c>
-      <c r="D5" t="n">
-        <v>60.56817044889288</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -802,12 +768,6 @@
       <c r="B6" t="n">
         <v>32</v>
       </c>
-      <c r="C6" t="n">
-        <v>2.250976812151276</v>
-      </c>
-      <c r="D6" t="n">
-        <v>60.06018138909931</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -816,12 +776,6 @@
       <c r="B7" t="n">
         <v>32</v>
       </c>
-      <c r="C7" t="n">
-        <v>2.164509288752438</v>
-      </c>
-      <c r="D7" t="n">
-        <v>61.6335683259378</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,12 +784,6 @@
       <c r="B8" t="n">
         <v>31</v>
       </c>
-      <c r="C8" t="n">
-        <v>2.953707760037067</v>
-      </c>
-      <c r="D8" t="n">
-        <v>62.38171153366238</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -844,12 +792,6 @@
       <c r="B9" t="n">
         <v>31</v>
       </c>
-      <c r="C9" t="n">
-        <v>3.014459062605261</v>
-      </c>
-      <c r="D9" t="n">
-        <v>59.05237286595398</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -858,12 +800,6 @@
       <c r="B10" t="n">
         <v>31</v>
       </c>
-      <c r="C10" t="n">
-        <v>2.593501061854954</v>
-      </c>
-      <c r="D10" t="n">
-        <v>61.30447249403041</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -872,12 +808,6 @@
       <c r="B11" t="n">
         <v>31</v>
       </c>
-      <c r="C11" t="n">
-        <v>1.145488427352993</v>
-      </c>
-      <c r="D11" t="n">
-        <v>60.51541356589137</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -886,12 +816,6 @@
       <c r="B12" t="n">
         <v>28</v>
       </c>
-      <c r="C12" t="n">
-        <v>-2.165118148821175</v>
-      </c>
-      <c r="D12" t="n">
-        <v>56.78798256750386</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -900,12 +824,6 @@
       <c r="B13" t="n">
         <v>28</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.01644262266500549</v>
-      </c>
-      <c r="D13" t="n">
-        <v>55.65694832535821</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -914,12 +832,6 @@
       <c r="B14" t="n">
         <v>28</v>
       </c>
-      <c r="C14" t="n">
-        <v>-1.408540016946355</v>
-      </c>
-      <c r="D14" t="n">
-        <v>57.44917852663067</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -928,12 +840,6 @@
       <c r="B15" t="n">
         <v>28</v>
       </c>
-      <c r="C15" t="n">
-        <v>-0.4790627504794984</v>
-      </c>
-      <c r="D15" t="n">
-        <v>54.69911785413857</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -942,12 +848,6 @@
       <c r="B16" t="n">
         <v>28</v>
       </c>
-      <c r="C16" t="n">
-        <v>-0.5632406795680566</v>
-      </c>
-      <c r="D16" t="n">
-        <v>58.20075606878463</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -956,12 +856,6 @@
       <c r="B17" t="n">
         <v>28</v>
       </c>
-      <c r="C17" t="n">
-        <v>-2.663712925622445</v>
-      </c>
-      <c r="D17" t="n">
-        <v>56.41453495178853</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -970,12 +864,6 @@
       <c r="B18" t="n">
         <v>27</v>
       </c>
-      <c r="C18" t="n">
-        <v>-2.910748427598009</v>
-      </c>
-      <c r="D18" t="n">
-        <v>54.92060906115279</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -984,12 +872,6 @@
       <c r="B19" t="n">
         <v>27</v>
       </c>
-      <c r="C19" t="n">
-        <v>-1.202118811381786</v>
-      </c>
-      <c r="D19" t="n">
-        <v>56.42677702447465</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -998,12 +880,6 @@
       <c r="B20" t="n">
         <v>27</v>
       </c>
-      <c r="C20" t="n">
-        <v>-2.151412530723036</v>
-      </c>
-      <c r="D20" t="n">
-        <v>52.86963612432499</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1012,12 +888,6 @@
       <c r="B21" t="n">
         <v>27</v>
       </c>
-      <c r="C21" t="n">
-        <v>-2.706158130545303</v>
-      </c>
-      <c r="D21" t="n">
-        <v>53.69364707632938</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1026,12 +896,6 @@
       <c r="B22" t="n">
         <v>26</v>
       </c>
-      <c r="C22" t="n">
-        <v>-1.709061148657957</v>
-      </c>
-      <c r="D22" t="n">
-        <v>54.08017869260637</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1040,12 +904,6 @@
       <c r="B23" t="n">
         <v>26</v>
       </c>
-      <c r="C23" t="n">
-        <v>-1.65183899879832</v>
-      </c>
-      <c r="D23" t="n">
-        <v>56.44606190205304</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1054,12 +912,6 @@
       <c r="B24" t="n">
         <v>26</v>
       </c>
-      <c r="C24" t="n">
-        <v>-4.602482728117749</v>
-      </c>
-      <c r="D24" t="n">
-        <v>55.06338686899744</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1068,12 +920,6 @@
       <c r="B25" t="n">
         <v>26</v>
       </c>
-      <c r="C25" t="n">
-        <v>-3.897581428986077</v>
-      </c>
-      <c r="D25" t="n">
-        <v>55.21639395440823</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1082,12 +928,6 @@
       <c r="B26" t="n">
         <v>26</v>
       </c>
-      <c r="C26" t="n">
-        <v>-3.357611898020767</v>
-      </c>
-      <c r="D26" t="n">
-        <v>55.04546018361148</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1096,12 +936,6 @@
       <c r="B27" t="n">
         <v>26</v>
       </c>
-      <c r="C27" t="n">
-        <v>-5.488555514834304</v>
-      </c>
-      <c r="D27" t="n">
-        <v>56.44835017869499</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1109,12 +943,6 @@
       </c>
       <c r="B28" t="n">
         <v>26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-2.475925169480025</v>
-      </c>
-      <c r="D28" t="n">
-        <v>55.29481478023038</v>
       </c>
     </row>
   </sheetData>
